--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Davies.Spring.031020.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Davies.Spring.031020.xlsx_with_dialog_acts.xlsx
@@ -979,12 +979,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2281,12 +2281,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2365,12 +2365,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3121,12 +3121,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4045,12 +4045,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4589,12 +4589,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4845,12 +4845,12 @@
       <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5097,12 +5097,12 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5349,12 +5349,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5899,12 +5899,12 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6109,12 +6109,12 @@
       <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -6151,12 +6151,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6277,12 +6277,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6613,12 +6613,12 @@
       <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6655,12 +6655,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6697,12 +6697,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -7117,12 +7117,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7243,12 +7243,12 @@
       <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7537,12 +7537,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7789,12 +7789,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7957,12 +7957,12 @@
       <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8881,12 +8881,12 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9175,12 +9175,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -9217,12 +9217,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9301,12 +9301,12 @@
       <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9511,12 +9511,12 @@
       <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9805,12 +9805,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10267,12 +10267,12 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10813,12 +10813,12 @@
       </c>
       <c r="I247" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10939,12 +10939,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11023,12 +11023,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11065,12 +11065,12 @@
       <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11233,12 +11233,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11359,12 +11359,12 @@
       <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11401,12 +11401,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11443,12 +11443,12 @@
       <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11695,12 +11695,12 @@
       <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12367,12 +12367,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12493,12 +12493,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13291,12 +13291,12 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13375,12 +13375,12 @@
       <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13879,12 +13879,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14593,12 +14593,12 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14635,12 +14635,12 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14765,12 +14765,12 @@
       <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J341" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15185,12 +15185,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15227,12 +15227,12 @@
       </c>
       <c r="I352" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15353,12 +15353,12 @@
       <c r="H355" t="inlineStr"/>
       <c r="I355" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15521,12 +15521,12 @@
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15647,12 +15647,12 @@
       </c>
       <c r="I362" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15689,12 +15689,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15983,12 +15983,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16785,12 +16785,12 @@
       <c r="H389" t="inlineStr"/>
       <c r="I389" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16953,12 +16953,12 @@
       <c r="H393" t="inlineStr"/>
       <c r="I393" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16995,12 +16995,12 @@
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17457,12 +17457,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17541,12 +17541,12 @@
       <c r="H407" t="inlineStr"/>
       <c r="I407" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17751,12 +17751,12 @@
       <c r="H412" t="inlineStr"/>
       <c r="I412" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17961,12 +17961,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18931,12 +18931,12 @@
       <c r="H440" t="inlineStr"/>
       <c r="I440" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19099,12 +19099,12 @@
       <c r="H444" t="inlineStr"/>
       <c r="I444" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J444" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19183,12 +19183,12 @@
       </c>
       <c r="I446" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19309,12 +19309,12 @@
       <c r="H449" t="inlineStr"/>
       <c r="I449" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19519,12 +19519,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19603,12 +19603,12 @@
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19729,12 +19729,12 @@
       <c r="H459" t="inlineStr"/>
       <c r="I459" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19771,12 +19771,12 @@
       <c r="H460" t="inlineStr"/>
       <c r="I460" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20027,12 +20027,12 @@
       <c r="H466" t="inlineStr"/>
       <c r="I466" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20489,12 +20489,12 @@
       <c r="H477" t="inlineStr"/>
       <c r="I477" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J477" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20829,12 +20829,12 @@
       <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20871,12 +20871,12 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21417,12 +21417,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21753,12 +21753,12 @@
       <c r="H507" t="inlineStr"/>
       <c r="I507" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J507" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21837,12 +21837,12 @@
       <c r="H509" t="inlineStr"/>
       <c r="I509" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21963,12 +21963,12 @@
       </c>
       <c r="I512" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J512" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22131,12 +22131,12 @@
       <c r="H516" t="inlineStr"/>
       <c r="I516" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -22425,12 +22425,12 @@
       <c r="H523" t="inlineStr"/>
       <c r="I523" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22467,12 +22467,12 @@
       <c r="H524" t="inlineStr"/>
       <c r="I524" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J524" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22761,12 +22761,12 @@
       <c r="H531" t="inlineStr"/>
       <c r="I531" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J531" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -22929,12 +22929,12 @@
       <c r="H535" t="inlineStr"/>
       <c r="I535" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23055,12 +23055,12 @@
       <c r="H538" t="inlineStr"/>
       <c r="I538" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J538" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23223,12 +23223,12 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23349,12 +23349,12 @@
       <c r="H545" t="inlineStr"/>
       <c r="I545" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23517,12 +23517,12 @@
       </c>
       <c r="I549" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J549" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23769,12 +23769,12 @@
       <c r="H555" t="inlineStr"/>
       <c r="I555" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J555" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -23811,12 +23811,12 @@
       <c r="H556" t="inlineStr"/>
       <c r="I556" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24151,12 +24151,12 @@
       <c r="H564" t="inlineStr"/>
       <c r="I564" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J564" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24487,12 +24487,12 @@
       <c r="H572" t="inlineStr"/>
       <c r="I572" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J572" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
